--- a/result/Q3_result.xlsx
+++ b/result/Q3_result.xlsx
@@ -590,46 +590,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -638,299 +638,299 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="n">
         <v>1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>2</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT2" t="n">
         <v>6</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
         <v>3</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AM3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -942,171 +942,171 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AM4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>8</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV4" t="n">
         <v>4</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
@@ -1115,245 +1115,245 @@
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
         <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL5" t="n">
         <v>5</v>
       </c>
       <c r="AM5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN5" t="n">
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>5</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
         <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
         <v>1</v>
       </c>
       <c r="AK6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AP6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>3</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -1362,10 +1362,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -1377,10 +1377,10 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>8</v>
@@ -1389,58 +1389,58 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
         <v>8</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
         <v>2</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1449,180 +1449,180 @@
         <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AM7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AP7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS7" t="n">
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
         <v>6</v>
@@ -1631,177 +1631,177 @@
         <v>6</v>
       </c>
       <c r="AR8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
         <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AM9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1809,136 +1809,136 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
         <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
       </c>
       <c r="AM10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
@@ -1947,10 +1947,10 @@
         <v>6</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -1958,25 +1958,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
         <v>8</v>
@@ -1985,100 +1985,100 @@
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
         <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
         <v>1</v>
@@ -2087,25 +2087,25 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2113,112 +2113,112 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V12" t="n">
         <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2227,117 +2227,117 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
         <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>6</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>8</v>
@@ -2346,168 +2346,168 @@
         <v>8</v>
       </c>
       <c r="AC13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AM13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>7</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
         <v>8</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" t="n">
         <v>7</v>
       </c>
       <c r="AA14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2516,499 +2516,499 @@
         <v>1</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT14" t="n">
         <v>5</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
         <v>8</v>
       </c>
       <c r="R15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AF15" t="n">
         <v>3</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
         <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW15" t="n">
         <v>8</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T16" t="n">
         <v>7</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AM16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
         <v>4</v>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="n">
         <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AT17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
         <v>7</v>
@@ -3017,269 +3017,269 @@
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>7</v>
       </c>
       <c r="AF18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AL18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN18" t="n">
         <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK19" t="n">
         <v>4</v>
@@ -3288,40 +3288,40 @@
         <v>3</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>5</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -3329,151 +3329,151 @@
         <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U20" t="n">
         <v>7</v>
       </c>
       <c r="V20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>6</v>
       </c>
       <c r="AA20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB20" t="n">
         <v>6</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>2</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL20" t="n">
         <v>4</v>
       </c>
       <c r="AM20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AU20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -3481,28 +3481,28 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
@@ -3511,7 +3511,7 @@
         <v>8</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -3520,10 +3520,10 @@
         <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -3532,100 +3532,100 @@
         <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AL21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW21" t="n">
         <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -3633,7 +3633,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
@@ -3645,595 +3645,595 @@
         <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
         <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
         <v>3</v>
       </c>
       <c r="AB22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD22" t="n">
         <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S23" t="n">
         <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U23" t="n">
         <v>8</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
         <v>5</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N24" t="n">
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U24" t="n">
         <v>7</v>
       </c>
       <c r="V24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z24" t="n">
         <v>5</v>
       </c>
       <c r="AA24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB24" t="n">
         <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>8</v>
       </c>
       <c r="AK24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AM24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AN24" t="n">
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AP24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
         <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV24" t="n">
         <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AL25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4409,19 +4409,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4445,31 +4445,31 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -4487,19 +4487,19 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -4508,25 +4508,25 @@
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -4538,22 +4538,22 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
@@ -4561,10 +4561,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -4573,19 +4573,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -4603,43 +4603,43 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -4657,22 +4657,22 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>1</v>
@@ -4693,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4716,13 +4716,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4749,19 +4749,19 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -4773,34 +4773,34 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -4827,40 +4827,40 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" t="n">
         <v>1</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>1</v>
       </c>
       <c r="AX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -4886,19 +4886,19 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -4943,16 +4943,16 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -4964,34 +4964,34 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
         <v>1</v>
       </c>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -5000,10 +5000,10 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -5012,18 +5012,18 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5038,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -5071,19 +5071,19 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -5092,40 +5092,40 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -5143,13 +5143,13 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -5187,28 +5187,28 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -5217,22 +5217,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -5244,40 +5244,40 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
         <v>1</v>
@@ -5289,31 +5289,31 @@
         <v>1</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
         <v>1</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7" t="n">
         <v>0</v>
@@ -5324,19 +5324,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -5357,34 +5357,34 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -5393,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -5405,16 +5405,16 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>1</v>
@@ -5423,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -5438,25 +5438,25 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -5476,16 +5476,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -5506,16 +5506,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -5551,16 +5551,16 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -5569,19 +5569,19 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -5602,25 +5602,25 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -5652,34 +5652,34 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -5694,19 +5694,19 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -5715,19 +5715,19 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -5736,28 +5736,28 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -5766,24 +5766,24 @@
         <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5819,22 +5819,22 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>1</v>
@@ -5855,55 +5855,55 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5921,10 +5921,10 @@
         <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -5947,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -5959,19 +5959,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -6001,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>1</v>
@@ -6028,28 +6028,28 @@
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -6067,16 +6067,16 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
         <v>1</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6084,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -6111,61 +6111,61 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -6183,37 +6183,37 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
         <v>1</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
         <v>1</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>1</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6263,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>1</v>
@@ -6317,31 +6317,31 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
         <v>1</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -6362,36 +6362,36 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -6406,52 +6406,52 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>1</v>
@@ -6469,16 +6469,16 @@
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>1</v>
@@ -6490,10 +6490,10 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="n">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
@@ -6517,19 +6517,19 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -6552,70 +6552,70 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -6624,13 +6624,13 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>1</v>
@@ -6639,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
@@ -6648,16 +6648,16 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
@@ -6692,49 +6692,49 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6743,10 +6743,10 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -6779,16 +6779,16 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -6803,13 +6803,13 @@
         <v>1</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
         <v>1</v>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -6841,16 +6841,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -6868,34 +6868,34 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -6904,25 +6904,25 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6934,10 +6934,10 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -6946,22 +6946,22 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -6970,19 +6970,19 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -7014,19 +7014,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -7038,10 +7038,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>1</v>
@@ -7053,19 +7053,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -7074,7 +7074,7 @@
         <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7098,16 +7098,16 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -7119,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
         <v>1</v>
@@ -7131,13 +7131,13 @@
         <v>1</v>
       </c>
       <c r="AU19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -7154,31 +7154,31 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -7190,10 +7190,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
@@ -7202,19 +7202,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>1</v>
@@ -7223,28 +7223,28 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
@@ -7256,10 +7256,10 @@
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
@@ -7268,10 +7268,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -7280,10 +7280,10 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -7318,10 +7318,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -7339,10 +7339,10 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>1</v>
@@ -7384,22 +7384,22 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -7411,19 +7411,19 @@
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -7432,63 +7432,63 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -7497,13 +7497,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -7527,13 +7527,13 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7542,22 +7542,22 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -7575,60 +7575,60 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -7637,19 +7637,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>1</v>
@@ -7658,61 +7658,61 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" t="n">
         <v>1</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -7724,13 +7724,13 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -7739,27 +7739,27 @@
         <v>1</v>
       </c>
       <c r="AU23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW23" t="n">
         <v>1</v>
       </c>
       <c r="AX23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -7789,13 +7789,13 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -7804,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -7816,13 +7816,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -7831,13 +7831,13 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -7861,19 +7861,19 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" t="n">
         <v>1</v>
       </c>
       <c r="AO24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -7882,22 +7882,22 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>0</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -7914,10 +7914,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
@@ -7947,13 +7947,13 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -7968,58 +7968,58 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
@@ -8028,31 +8028,31 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8196,7 +8196,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56437.02948857949</v>
+        <v>10000000000</v>
       </c>
     </row>
   </sheetData>
@@ -8230,122 +8230,122 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42209.43504751287</v>
+        <v>28379.36150212181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33015.79374057904</v>
+        <v>288.4335189200938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14682.82137542626</v>
+        <v>-27639.71461641981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5845.063074133333</v>
+        <v>-55558.63699108098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-12807.57839830278</v>
+        <v>-83478.23699071028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-28513.97692706187</v>
+        <v>-111467.9090333653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-43147.91639129621</v>
+        <v>-139506.9516603793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-56183.06954063283</v>
+        <v>-167493.3534511056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-77034.58194935456</v>
+        <v>-195413.5077197003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-87852.86477654042</v>
+        <v>-223376.7756513459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-101753.7074540586</v>
+        <v>-251366.6775617965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-116994.548076152</v>
+        <v>-279136.5858406468</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-129864.6673803849</v>
+        <v>-307100.9365389398</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-143855.3583998715</v>
+        <v>-334965.400356526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-161353.7857111851</v>
+        <v>-362987.0107892321</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-180244.9619940922</v>
+        <v>-390968.0454396298</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-198336.1285189518</v>
+        <v>-419082.078563989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-213785.5723706492</v>
+        <v>-447085.99095327</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-229536.1617959833</v>
+        <v>-474955.8041795917</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-246521.0766036702</v>
+        <v>-502994.634917316</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-257958.3984282763</v>
+        <v>-530986.2192394197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-272729.1479678467</v>
+        <v>-558921.1951587038</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-290849.802029474</v>
+        <v>-586825.2282926524</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56838.84469447174</v>
+        <v>-614360.0823049978</v>
       </c>
     </row>
   </sheetData>
